--- a/Documentacion Tecnica/Guiones de prueba/EM-Acceso/QA-EM-Acceso-CU2_IniciarSesion.xlsx
+++ b/Documentacion Tecnica/Guiones de prueba/EM-Acceso/QA-EM-Acceso-CU2_IniciarSesion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8.1\Desktop\TT1\Documentacion\Documentacion Tecnica\Guiones de prueba\EM-Acceso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\W8.1\Desktop\ESCOMobile TT2\ESCOMobile\Documentacion Tecnica\Guiones de prueba\EM-Acceso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5E259-17BB-4483-93F2-A02CA0F3D389}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD82BB13-88D3-4341-980D-C74DA85F6FCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU2Información general" sheetId="1" r:id="rId1"/>
@@ -2380,13 +2380,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="9"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3107,8 +3107,8 @@
   </sheetPr>
   <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
